--- a/data/income_statement/1digit/size/J_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/J_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>J-Information and communication</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>J-Information and communication</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1154 +841,1304 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3580977.78392</v>
+        <v>3719238.01001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4437154.040440001</v>
+        <v>4536280.349490001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5745065.122649999</v>
+        <v>5740200.160650001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6439337.62952</v>
+        <v>6469558.47892</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8038471.394820001</v>
+        <v>8019385.702469999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>9002942.609110001</v>
+        <v>9195296.682350002</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>11135115.78763</v>
+        <v>11595258.76306</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>12456326.22863</v>
+        <v>13021751.13372</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>14711766.69439</v>
+        <v>14908504.773</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>17955084.03998</v>
+        <v>17630050.3044</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>22491114.62177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>23160388.66897</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>31704037.578</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3248456.99405</v>
+        <v>3372812.32027</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4089492.171730001</v>
+        <v>4150225.90522</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5254979.67441</v>
+        <v>5202083.97448</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5869654.58266</v>
+        <v>5874071.266650001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7272151.3927</v>
+        <v>7259948.64768</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>8151496.854400001</v>
+        <v>8288380.0535</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>10093503.7442</v>
+        <v>10441235.35688</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>11394082.81544</v>
+        <v>11855150.0076</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>13346925.57925</v>
+        <v>13488065.52057</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>15568656.64464</v>
+        <v>15338727.9884</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>19141679.05569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>19754123.7431</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>26656491.065</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>246723.53126</v>
+        <v>261973.95707</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>273939.31871</v>
+        <v>301906.64439</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>384465.2704</v>
+        <v>410979.39074</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>425792.11385</v>
+        <v>448076.32845</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>621668.70761</v>
+        <v>626794.33364</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>656647.48448</v>
+        <v>719600.30322</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>800391.8154099999</v>
+        <v>904870.3287000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>834357.1788599999</v>
+        <v>935061.8208300001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1053141.01326</v>
+        <v>1121091.4943</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1985179.55527</v>
+        <v>1919664.22406</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2892593.29162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2959543.84673</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4227189.659</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>85797.25861</v>
+        <v>84451.73267</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>73722.55</v>
+        <v>84147.79988000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>105620.17784</v>
+        <v>127136.79543</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>143890.93301</v>
+        <v>147410.88382</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>144651.29451</v>
+        <v>132642.72115</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>194798.27023</v>
+        <v>187316.32563</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>241220.22802</v>
+        <v>249153.07748</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>227886.23433</v>
+        <v>231539.30529</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>311700.10188</v>
+        <v>299347.75813</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>401247.8400699999</v>
+        <v>371658.09194</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>456842.27446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>446721.07914</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>820356.8540000001</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>141555.67146</v>
+        <v>138300.8796</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>192047.26247</v>
+        <v>174789.82022</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>192656.37773</v>
+        <v>191247.03299</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>214508.7758600001</v>
+        <v>219353.39074</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>259105.32224</v>
+        <v>245597.02256</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>340390.8697100001</v>
+        <v>376234.54947</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>368172.86395</v>
+        <v>387719.98298</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>505183.4390599999</v>
+        <v>538759.0511499998</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>702269.8152300001</v>
+        <v>762645.8420699998</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>868687.3923000001</v>
+        <v>831139.1703199999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>964646.25947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1002631.9272</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1623450.862</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>104469.02391</v>
+        <v>103727.36892</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>128247.26048</v>
+        <v>113675.01466</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>129474.66099</v>
+        <v>127515.35613</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>133027.91821</v>
+        <v>140002.0993999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>177106.4549</v>
+        <v>176294.55567</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>239410.66955</v>
+        <v>276841.24453</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>249663.24791</v>
+        <v>263923.87849</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>366366.84085</v>
+        <v>401026.2958200001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>448914.4965900001</v>
+        <v>489585.71519</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>635105.8418699999</v>
+        <v>610993.0454699999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>723552.52488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>736511.43472</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1207756.267</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>34232.49762</v>
+        <v>31516.84576</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>59640.11762</v>
+        <v>56981.35764000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>56640.81447</v>
+        <v>57235.94075</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>65292.01474</v>
+        <v>63931.34394000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>67513.59963000001</v>
+        <v>55107.72036</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>90988.42978999999</v>
+        <v>89856.31671</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>108160.58135</v>
+        <v>113369.96843</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>122893.33493</v>
+        <v>122171.75353</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>234152.60618</v>
+        <v>254312.80986</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>217683.93231</v>
+        <v>205673.72186</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>213664.26894</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>237007.27748</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>393049.886</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2854.14993</v>
+        <v>3056.66492</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>4159.88437</v>
+        <v>4133.44792</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>6540.90227</v>
+        <v>6495.736110000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>16188.84291</v>
+        <v>15419.9474</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>14485.26771</v>
+        <v>14194.74653</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>9991.77037</v>
+        <v>9536.988230000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>10349.03469</v>
+        <v>10426.13606</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>15923.26328</v>
+        <v>15561.0018</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>19202.71246</v>
+        <v>18747.31702</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>15897.61812</v>
+        <v>14472.40299</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>27429.46565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>29113.215</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>22644.709</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3439422.11246</v>
+        <v>3580937.13041</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4245106.77797</v>
+        <v>4361490.52927</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5552408.744920001</v>
+        <v>5548953.12766</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6224828.85366</v>
+        <v>6250205.088180001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7779366.07258</v>
+        <v>7773788.679909999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>8662551.739399999</v>
+        <v>8819062.13288</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10766942.92368</v>
+        <v>11207538.78008</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>11951142.78957</v>
+        <v>12482992.08257</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>14009496.87916</v>
+        <v>14145858.93093</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>17086396.64768</v>
+        <v>16798911.13408</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>21526468.3623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>22157756.74177</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>30080586.716</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2487069.90966</v>
+        <v>2620350.35393</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3004021.60595</v>
+        <v>3164264.22149</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4089982.38186</v>
+        <v>4080484.060869999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4536839.30609</v>
+        <v>4509537.092879999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5573289.135899998</v>
+        <v>5584721.320499999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6167619.87067</v>
+        <v>6343843.12081</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>7670849.304380001</v>
+        <v>8027539.121520001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8792237.162</v>
+        <v>9069561.62301</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>9779969.68369</v>
+        <v>9893511.727609999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11395834.68883</v>
+        <v>11266529.96178</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>14115854.72272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14420836.75806</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>19547534.083</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>201965.79619</v>
+        <v>241971.2697</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>290454.24394</v>
+        <v>281020.73506</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>395720.6125399999</v>
+        <v>386220.34156</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>371853.27196</v>
+        <v>402616.76956</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>415198.16358</v>
+        <v>421367.35654</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>522417.82624</v>
+        <v>570144.24054</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>452467.6746799999</v>
+        <v>514918.54027</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>575225.69678</v>
+        <v>647768.6022500001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>714797.73772</v>
+        <v>778222.87258</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1047140.15719</v>
+        <v>982078.44988</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1318289.14911</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1311146.39202</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1483387.911</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>527399.46058</v>
+        <v>527362.49171</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>571807.68288</v>
+        <v>591102.26628</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1037550.12554</v>
+        <v>1028379.49588</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1224418.732</v>
+        <v>1214966.40553</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1678217.00577</v>
+        <v>1643748.40717</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1825772.69649</v>
+        <v>1904308.56472</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2330868.58738</v>
+        <v>2520827.40056</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3091205.40561</v>
+        <v>3191778.07757</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3230896.89976</v>
+        <v>3321124.63383</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3052213.55166</v>
+        <v>2939516.02021</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3581212.61095</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3649240.23949</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7120090.97</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1701826.94135</v>
+        <v>1783547.31398</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2140360.70666</v>
+        <v>2289730.79468</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2636586.07707</v>
+        <v>2648285.71853</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2898334.61467</v>
+        <v>2845972.14985</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3447517.67576</v>
+        <v>3485517.66579</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3746544.73798</v>
+        <v>3790637.63207</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4870502.83895</v>
+        <v>4970055.81792</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>5106167.571570001</v>
+        <v>5210264.333400001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5775155.04595</v>
+        <v>5738332.226729999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>7200097.53731</v>
+        <v>7206480.78453</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>9150276.275890002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>9342150.391519999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>10810511.256</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>55877.71154</v>
+        <v>67469.27853999998</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1398.97247</v>
+        <v>2410.42547</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>20125.56671</v>
+        <v>17598.5049</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>42232.68746</v>
+        <v>45981.76794000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>32356.29079</v>
+        <v>34087.891</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>72884.60996</v>
+        <v>78752.68348000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>17010.20337</v>
+        <v>21737.36277</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>19638.48804</v>
+        <v>19750.60979</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>59120.00026</v>
+        <v>55831.99447000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>96383.44267000002</v>
+        <v>138454.70716</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>66076.68677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>118299.73503</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>133543.946</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>952352.2028000001</v>
+        <v>960586.77648</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1241085.17202</v>
+        <v>1197226.30778</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1462426.36306</v>
+        <v>1468469.06679</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1687989.54757</v>
+        <v>1740667.9953</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2206076.93668</v>
+        <v>2189067.35941</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2494931.86873</v>
+        <v>2475219.012070001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3096093.6193</v>
+        <v>3179999.65856</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3158905.62757</v>
+        <v>3413430.45956</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4229527.19547</v>
+        <v>4252347.20332</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5690561.95885</v>
+        <v>5532381.1723</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7410613.63958</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7736919.98371</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>10533052.633</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>827367.9172500001</v>
+        <v>853821.41821</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1007445.74168</v>
+        <v>1014390.2544</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1228979.61339</v>
+        <v>1251032.84515</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1395899.65876</v>
+        <v>1409797.89873</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1695376.52076</v>
+        <v>1682870.58004</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1910483.50631</v>
+        <v>1876403.63818</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2201024.91406</v>
+        <v>2240012.00699</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2375692.75417</v>
+        <v>2513147.43044</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3107670.81764</v>
+        <v>3115928.55154</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4149469.38079</v>
+        <v>4072540.31998</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5022316.64561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5121119.69382</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6261903.47</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>57085.99643000001</v>
+        <v>56313.16654</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>83383.83235</v>
+        <v>79249.87392</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>114918.57683</v>
+        <v>106805.77489</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>154895.87092</v>
+        <v>159254.78696</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>204696.71723</v>
+        <v>196503.75247</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>229475.705</v>
+        <v>218384.59735</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>296746.3347099999</v>
+        <v>304260.24058</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>364763.6812</v>
+        <v>401961.5366400001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>519151.11115</v>
+        <v>529082.8444899999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>719988.4025600001</v>
+        <v>709520.24329</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>915801.2656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>991421.3941</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1127685.644</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>256043.61257</v>
+        <v>255791.96627</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>313991.85815</v>
+        <v>314102.05019</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>353588.05632</v>
+        <v>361187.13324</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>387443.31686</v>
+        <v>389620.16036</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>471964.84072</v>
+        <v>480556.15973</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>545575.5057699999</v>
+        <v>550976.4893400001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>636506.61622</v>
+        <v>653271.97479</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>664005.79526</v>
+        <v>751472.6010800001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>953020.90715</v>
+        <v>953192.2918100001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1302245.51813</v>
+        <v>1306331.80692</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1495475.40271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1548045.49621</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1983820.293</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>514238.3082500001</v>
+        <v>541716.2853999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>610070.0511800001</v>
+        <v>621038.3302899998</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>760472.9802400001</v>
+        <v>783039.9370200001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>853560.47098</v>
+        <v>860922.9514100001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1018714.96281</v>
+        <v>1005810.66784</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1135432.29554</v>
+        <v>1107042.55149</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1267771.96313</v>
+        <v>1282479.79162</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1346923.27771</v>
+        <v>1359713.29272</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1635498.79934</v>
+        <v>1633653.41524</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2127235.4601</v>
+        <v>2056688.26977</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2611039.9773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2581652.80351</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3150397.533</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>124984.28555</v>
+        <v>106765.35827</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>233639.43034</v>
+        <v>182836.05338</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>233446.74967</v>
+        <v>217436.22164</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>292089.88881</v>
+        <v>330870.0965700001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>510700.4159199999</v>
+        <v>506196.77937</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>584448.3624199999</v>
+        <v>598815.3738899999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>895068.7052399999</v>
+        <v>939987.6515700001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>783212.8733999999</v>
+        <v>900283.0291199998</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1121856.37783</v>
+        <v>1136418.65178</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1541092.57806</v>
+        <v>1459840.85232</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2388296.99397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2615800.28989</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4271149.163</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>157169.01978</v>
+        <v>213449.24553</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>178921.69908</v>
+        <v>268213.85085</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>228713.18897</v>
+        <v>262444.04086</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>206488.49686</v>
+        <v>226240.95417</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>325699.68062</v>
+        <v>339292.82485</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>406748.11969</v>
+        <v>426062.5463</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>648096.22569</v>
+        <v>633479.6402099999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>510205.8494200001</v>
+        <v>641077.5986499999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>776291.87683</v>
+        <v>754273.61583</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2620550.17008</v>
+        <v>2591894.02353</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1866957.30847</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2430514.71627</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3375907.904</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>6478.08791</v>
+        <v>3821.27672</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>9222.888359999999</v>
+        <v>6076.05988</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>6841.40265</v>
+        <v>8584.37621</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>11198.14632</v>
+        <v>19210.94361</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>17923.55795</v>
+        <v>4350.674140000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>13033.79163</v>
+        <v>11565.11226</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>18691.80617</v>
+        <v>18715.94866</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>14588.44185</v>
+        <v>24609.89175</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>26069.19365</v>
+        <v>5266.91815</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>30035.6212</v>
+        <v>24498.25198</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>36683.49215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>68480.77473</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1644.463</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>390.86914</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>2720.40211</v>
+        <v>733.9707999999999</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1454.69408</v>
+        <v>17009.70307</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>15955.11686</v>
+        <v>5039.74559</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>14824.46058</v>
+        <v>9053.50085</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>18662.9844</v>
+        <v>7461.781279999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>25183.05681</v>
+        <v>11497.41167</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>20076.61659000001</v>
+        <v>13278.8604</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>24615.85994</v>
+        <v>15379.20124</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>38154.39739</v>
+        <v>16459.49394</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>21075.0328</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>27787.83872</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>35672.996</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>31276.48189</v>
+        <v>38001.03869</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>33525.02778</v>
+        <v>32556.88131</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>33158.33681</v>
+        <v>37974.32475</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>40836.06196</v>
+        <v>41973.30594000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>53690.93495</v>
+        <v>49430.57266999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>65232.80299999999</v>
+        <v>62291.65508</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>76339.71592000002</v>
+        <v>72116.58024999998</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>84142.19168</v>
+        <v>75749.54509</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>117605.24376</v>
+        <v>100183</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>236198.56845</v>
+        <v>211516.48296</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>332814.6337499999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>353110.5045399999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>262524.74</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>3298.02303</v>
+        <v>3370.564820000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>4667.05262</v>
+        <v>4637.351749999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2849.9606</v>
+        <v>2672.55611</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2547.53722</v>
+        <v>2884.423310000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3340.066150000001</v>
+        <v>3284.52007</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>7379.039479999999</v>
+        <v>7318.959229999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5855.5475</v>
+        <v>3423.19158</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>19037.04369</v>
+        <v>18994.52172</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>10347.53849</v>
+        <v>10009.90272</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>8496.18246</v>
+        <v>14510.43674</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>9153.150370000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>15084.72441</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>27364.614</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5539.94231</v>
+        <v>5283.62696</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>9596.364599999999</v>
+        <v>7102.848660000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>5585.36796</v>
+        <v>6094.01427</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>4914.33038</v>
+        <v>3920.51499</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>5013.326419999999</v>
+        <v>5366.001439999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>6211.97507</v>
+        <v>5373.45343</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>13986.89829</v>
+        <v>13565.99881</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5329.21422</v>
+        <v>9506.850329999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>9423.680700000001</v>
+        <v>9863.00719</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>50188.00341</v>
+        <v>30433.48714</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>70811.04613</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>50129.32277000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>38980.962</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>4089.96028</v>
+        <v>4803.05338</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1501.62731</v>
+        <v>2003.1702</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3682.05637</v>
+        <v>2135.32129</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>3100.45394</v>
+        <v>2358.75255</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2579.33782</v>
+        <v>3142.5948</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>6231.137929999999</v>
+        <v>8177.730980000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>11966.8769</v>
+        <v>6703.554440000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>8540.622810000001</v>
+        <v>6831.16086</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>8680.134230000001</v>
+        <v>7128.23157</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>67676.30645</v>
+        <v>35438.4639</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>36331.67544</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>23975.29047</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>262394.334</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>77766.51274000001</v>
+        <v>123421.86535</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>83815.33278</v>
+        <v>160537.64244</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>118015.54723</v>
+        <v>137114.81256</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>68178.95652000001</v>
+        <v>102652.11534</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>176580.2749</v>
+        <v>226923.81988</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>235025.15418</v>
+        <v>274533.97591</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>433937.51964</v>
+        <v>457837.99228</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>270107.34866</v>
+        <v>345730.3111</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>481193.36512</v>
+        <v>478882.3515999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1979091.77318</v>
+        <v>2040064.79271</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1159633.60159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1646604.54269</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2504341.352</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1666.02538</v>
+        <v>1106.40789</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>1023.89342</v>
+        <v>583.4759299999999</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>14351.59608</v>
+        <v>13941.18059</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>16618.37212</v>
+        <v>16394.26181</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>354.20482</v>
+        <v>149.62401</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1729.97713</v>
+        <v>1707.58476</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>948.3133200000001</v>
+        <v>920.3133200000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>218.74924</v>
+        <v>1122.64922</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1645.97543</v>
+        <v>1100.43036</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>2279.24709</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>5630.718269999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>6331.07184</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>6904.353</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.008029999999999999</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>35.31907</v>
+        <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>2.24526</v>
+        <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>8.066649999999999</v>
@@ -2099,298 +2150,338 @@
         <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>162.58593</v>
+        <v>151.35093</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>0</v>
+        <v>454.00384</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>231.56653</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>392.15253</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>258.207</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>26663.10907</v>
+        <v>33250.53455</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>32813.79102999999</v>
+        <v>53982.44987999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>42771.98193</v>
+        <v>36917.75201</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>43131.45489</v>
+        <v>31798.82438</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>51393.51703</v>
+        <v>37591.51699</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>53241.25686999999</v>
+        <v>47632.29337</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>61023.90521</v>
+        <v>48547.29827</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>88165.62068000001</v>
+        <v>145253.80818</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>96710.88551000001</v>
+        <v>126006.56916</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>208430.07045</v>
+        <v>216693.36707</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>194592.39144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>238618.49357</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>235821.883</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>113912.85644</v>
+        <v>160098.79546</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>111688.30389</v>
+        <v>173090.13736</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>151061.50868</v>
+        <v>247655.70451</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>118915.80892</v>
+        <v>143878.38947</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>242870.70332</v>
+        <v>265584.01886</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>367727.42608</v>
+        <v>365241.79779</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>510382.52205</v>
+        <v>490566.56558</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>318051.48795</v>
+        <v>453332.85563</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>538839.66969</v>
+        <v>527729.2148199999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2125599.3845</v>
+        <v>2077244.8371</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1261676.53324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1768418.75118</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2745790.867</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6433.014450000001</v>
+        <v>8962.103009999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>4605.336470000001</v>
+        <v>6396.019719999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>5504.703060000001</v>
+        <v>6272.519560000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>10218.50198</v>
+        <v>11205.60794</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>10344.59874</v>
+        <v>12047.12948</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>19542.3352</v>
+        <v>19789.80311</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>14370.46918</v>
+        <v>17432.2677</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>22236.65295</v>
+        <v>27025.93127</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>17569.72298</v>
+        <v>17359.85344</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>38457.98257</v>
+        <v>21903.1218</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>22399.76886</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>23551.59067</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>53828.483</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>23685.10115</v>
+        <v>24018.89623</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>18230.65451</v>
+        <v>17176.74376</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>13234.64975</v>
+        <v>24611.91854</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>23292.92275</v>
+        <v>23678.76876</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>18287.62219</v>
+        <v>19504.81825</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>78675.82551000001</v>
+        <v>45617.39061999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>27234.85386</v>
+        <v>27340.79848</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>35301.14878</v>
+        <v>34650.31176999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>19719.2994</v>
+        <v>18389.28936</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>135001.30668</v>
+        <v>115086.97535</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>116009.99341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>132683.08816</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>96520.78</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>303.72447</v>
+        <v>986.8556699999999</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>144.00841</v>
+        <v>244.53167</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>980.8042399999999</v>
+        <v>1473.93573</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1301.53691</v>
+        <v>177.55429</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>184.9272</v>
+        <v>177.83478</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>95.58700999999999</v>
+        <v>43.97532</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1744.78575</v>
+        <v>486.56991</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>6107.006329999999</v>
+        <v>4228.72763</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>904.4887299999999</v>
+        <v>697.79583</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>14017.5557</v>
+        <v>12652.53633</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>6425.10518</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>4952.205359999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>10377.608</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>74283.89406999999</v>
+        <v>116782.60938</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>79991.0831</v>
+        <v>138793.17138</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>122753.60673</v>
+        <v>204891.79738</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>71020.12845</v>
+        <v>98354.22166999998</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>203682.80639</v>
+        <v>226361.76091</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>254006.5266400001</v>
+        <v>290499.0346599999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>444740.6951499999</v>
+        <v>430027.87051</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>238275.62178</v>
+        <v>282547.8297499999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>473845.1898</v>
+        <v>469285.9917599999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1892674.81818</v>
+        <v>1889338.31389</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1074473.46702</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1565983.54263</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2508082.605</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>425.08812</v>
+        <v>410.8842</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>640.88852</v>
+        <v>669.5378900000001</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>520.80705</v>
+        <v>709.75116</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>605.7388199999999</v>
+        <v>440.67961</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>543.5753199999999</v>
+        <v>402.3083999999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>5337.73053</v>
+        <v>2299.07946</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1044.39467</v>
+        <v>1024.90677</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>254.52502</v>
+        <v>1932.28317</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>621.48428</v>
+        <v>1452.64563</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>2399.45275</v>
+        <v>2398.96649</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2952.06461</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>6443.6098</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>8512.645</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.02319</v>
@@ -2399,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>12.57408</v>
+        <v>12.36173</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>13.51866</v>
@@ -2411,7 +2502,7 @@
         <v>0.01315</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>157.88055</v>
+        <v>2.93169</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>8782.010989999999</v>
+        <v>8937.423780000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>8076.33288</v>
+        <v>9810.13294</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8054.36377</v>
+        <v>9683.420410000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>12463.46135</v>
+        <v>10008.03854</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>9813.62761</v>
+        <v>7076.62117</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>10069.40804</v>
+        <v>6992.50147</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>21089.44289</v>
+        <v>14251.22052</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>15876.53309</v>
+        <v>102947.77204</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>26179.4592</v>
+        <v>20543.6135</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>43048.26862</v>
+        <v>35864.92324</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>39416.13416</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>34804.71456</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>68468.746</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>67824.00541</v>
+        <v>73814.58760000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>78954.51009000001</v>
+        <v>98325.31433999998</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>101804.32729</v>
+        <v>97853.52399000002</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>97688.72242000001</v>
+        <v>96366.54274</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>128974.54511</v>
+        <v>113115.06978</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>159931.25022</v>
+        <v>138731.34366</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>182095.45502</v>
+        <v>168031.33543</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>178207.90932</v>
+        <v>259317.5965</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>287785.9544</v>
+        <v>240613.29424</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>451941.29693</v>
+        <v>414672.28308</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>551168.559</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>533843.78541</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>387802.173</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>64018.26437999999</v>
+        <v>67185.33985999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>74660.98872999998</v>
+        <v>96268.6201</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>97581.55773999999</v>
+        <v>93349.00785000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>97349.97118000001</v>
+        <v>94052.71369</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>126267.95195</v>
+        <v>109667.06543</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>158181.69439</v>
+        <v>134922.29408</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>180760.02681</v>
+        <v>164897.92966</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>174271.23076</v>
+        <v>255040.48829</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>283769.46191</v>
+        <v>235173.0699</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>427142.2170500001</v>
+        <v>392470.41495</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>537592.07356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>518773.30195</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>373922.95</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3805.74103</v>
+        <v>6629.247739999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>4293.521360000001</v>
+        <v>2056.69424</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>4222.76955</v>
+        <v>4504.516140000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>338.75124</v>
+        <v>2313.82905</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2706.59316</v>
+        <v>3448.00435</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1749.55583</v>
+        <v>3809.04958</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1335.42821</v>
+        <v>3133.40577</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>3936.678560000001</v>
+        <v>4277.108210000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4016.49249</v>
+        <v>5440.22434</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>24799.07988</v>
+        <v>22201.86813</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>13576.48544</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>15070.48346</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>13879.223</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>100416.44348</v>
+        <v>86301.22073999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>221918.31544</v>
+        <v>179634.45253</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>209294.10267</v>
+        <v>134371.0339999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>281973.8543300001</v>
+        <v>316866.11853</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>464554.84811</v>
+        <v>466790.5155799999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>463537.80581</v>
+        <v>520904.7787399999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>850686.95386</v>
+        <v>914869.3907699999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>797159.3255500002</v>
+        <v>828710.1756399999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1071522.63057</v>
+        <v>1122349.75855</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1584102.06671</v>
+        <v>1559817.75567</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2442409.2102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2744052.46957</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>4513464.027</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>40421.23664</v>
+        <v>41278.63436</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>43354.76279</v>
+        <v>68894.23222000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>64362.57011999999</v>
+        <v>54199.87162000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>50629.28988</v>
+        <v>41631.33849999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>88998.90073000001</v>
+        <v>71726.76341</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>123180.14146</v>
+        <v>71580.20491000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>101862.12446</v>
+        <v>75509.48504</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>93151.94154999999</v>
+        <v>83728.29328999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>96808.14902</v>
+        <v>84930.55838999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>145118.92863</v>
+        <v>143833.29973</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>193687.96793</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>188743.98272</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>282788.832</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>14221.52372</v>
+        <v>14095.48725</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2961.71681</v>
+        <v>20464.40579</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1915.46753</v>
+        <v>426.84297</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2662.34354</v>
+        <v>909.0457299999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>731.4753400000001</v>
+        <v>692.9043200000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2089.77034</v>
+        <v>1329.17369</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2293.55453</v>
+        <v>1113.90584</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2667.98523</v>
+        <v>1371.08414</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3139.51881</v>
+        <v>1718.13145</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>5402.59299</v>
+        <v>4999.690199999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>14519.57881</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>15810.22546</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5683.623</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>26199.71292</v>
+        <v>27183.14710999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>40393.04598</v>
+        <v>48429.82643</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>62447.10258999999</v>
+        <v>53773.02865000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>47966.94634</v>
+        <v>40722.29276999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>88267.42539</v>
+        <v>71033.85908999998</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>121090.37112</v>
+        <v>70251.03122</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>99568.56993000001</v>
+        <v>74395.57919999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>90483.95632</v>
+        <v>82357.20915000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>93668.63021</v>
+        <v>83212.42694</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>139716.33564</v>
+        <v>138833.60953</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>179168.38912</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>172933.75726</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>277105.209</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>30864.72362</v>
+        <v>31044.89363</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>33703.71623</v>
+        <v>47372.20148000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>295711.0571</v>
+        <v>422005.4114000002</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>75157.7537</v>
+        <v>71811.96314000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>241720.95458</v>
+        <v>76080.29609999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>157335.13686</v>
+        <v>118088.97438</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>99780.99082999998</v>
+        <v>87152.20086</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>279792.18383</v>
+        <v>239393.3707</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>110477.05183</v>
+        <v>95261.29067</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>423187.14053</v>
+        <v>389306.76716</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>181943.65164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>169858.38239</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>247226.956</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>191.59654</v>
+        <v>455.2729</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>260.59852</v>
+        <v>45.59852</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>321.32981</v>
+        <v>319.62981</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1074.22251</v>
+        <v>102.21867</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>21.40026</v>
+        <v>1521.08999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>166.6473</v>
+        <v>881.9306899999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3165.38178</v>
+        <v>22.30053</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>111.03637</v>
+        <v>111.0364</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>467.63494</v>
+        <v>379.70631</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>5190.5299</v>
+        <v>4264.956220000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>5826.201980000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>5581.43135</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2845.026</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>6116.895749999999</v>
+        <v>8659.101219999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>5353.480920000001</v>
+        <v>16369.8662</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>8197.33286</v>
+        <v>173405.79913</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>8843.915430000001</v>
+        <v>9406.599989999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>6824.87433</v>
+        <v>8013.06063</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6536.318410000001</v>
+        <v>7099.5598</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5143.637110000001</v>
+        <v>3812.35524</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6155.57926</v>
+        <v>8601.872220000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5790.33157</v>
+        <v>5158.24899</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>19818.29969</v>
+        <v>10430.6082</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>19134.68553</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>14511.99821</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>38129.442</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>24556.23133</v>
+        <v>21930.51951</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>28089.63679</v>
+        <v>30956.73676</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>287192.3944299999</v>
+        <v>248279.98246</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>65239.61576</v>
+        <v>62303.14448</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>234874.67999</v>
+        <v>66546.14547999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>150632.17115</v>
+        <v>110107.48389</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>91471.97194000002</v>
+        <v>83317.54508999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>273525.5682</v>
+        <v>230680.46208</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>104219.08532</v>
+        <v>89723.33537</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>398178.31094</v>
+        <v>374611.2027400001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>156982.76413</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>149764.95283</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>206252.488</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>109972.9565</v>
+        <v>96534.96147000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>231569.362</v>
+        <v>201156.48327</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-22054.38430999999</v>
+        <v>-233434.50578</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>257445.39051</v>
+        <v>286685.49389</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>311832.79426</v>
+        <v>462436.98289</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>429382.81041</v>
+        <v>474396.00927</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>852768.0874899999</v>
+        <v>903226.67495</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>610519.0832700001</v>
+        <v>673045.09823</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1057853.72776</v>
+        <v>1112019.02627</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1306033.85481</v>
+        <v>1314344.28824</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2454153.52649</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2762938.0699</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>4549025.903</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>40783.8857</v>
+        <v>42994.97779</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>52877.07573</v>
+        <v>48401.26247</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>65221.36476</v>
+        <v>64219.75338000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>66191.35261</v>
+        <v>70252.33257000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>99095.63576</v>
+        <v>100020.40395</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>107787.84114</v>
+        <v>108083.11232</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>150793.0460799999</v>
+        <v>153283.54044</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>149568.03475</v>
+        <v>153151.01827</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>172256.55702</v>
+        <v>170913.93735</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>278718.6382399999</v>
+        <v>267504.37387</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>345931.30305</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>368687.51411</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>562743.453</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>69189.07080000002</v>
+        <v>53539.98367999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>178692.28627</v>
+        <v>152755.2208</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-87275.74907000001</v>
+        <v>-297654.25916</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>191254.0379</v>
+        <v>216433.16132</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>212737.1585</v>
+        <v>362416.5789399999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>321594.9692700001</v>
+        <v>366312.89695</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>701975.0414099999</v>
+        <v>749943.13451</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>460951.0485200001</v>
+        <v>519894.0799600001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>885597.17074</v>
+        <v>941105.08892</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1027315.21657</v>
+        <v>1046839.91437</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2108222.22344</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2394250.55579</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3986282.45</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>494</v>
+        <v>384</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>577</v>
+        <v>447</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>662</v>
+        <v>496</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>598</v>
+        <v>460</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>666</v>
+        <v>521</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>749</v>
+        <v>594</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>820</v>
+        <v>636</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>979</v>
+        <v>717</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>686</v>
+        <v>586</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>644</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>